--- a/src/resources/persons-excel.xlsx
+++ b/src/resources/persons-excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="5010" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet-1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Last Name</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>First Name</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
 </sst>
 </file>
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +899,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
